--- a/data/dataframe/10054.xlsx
+++ b/data/dataframe/10054.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6787BF87-B9A8-4431-9368-29E82CDF8748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C9A5C-6692-C54E-8BC5-703DD0A4DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26535" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17020" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,47 +439,47 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <f>-9.7*10^(-5)*D2</f>
@@ -489,7 +489,7 @@
         <v>1.6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>2.7*10^(-5)</f>

--- a/data/dataframe/10054.xlsx
+++ b/data/dataframe/10054.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C9A5C-6692-C54E-8BC5-703DD0A4DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EC82F-82FB-1E42-B4E3-036E7C14EF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17020" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
